--- a/data/rules.xlsx
+++ b/data/rules.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\amdocs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468F6958-C1FB-42C0-B3AB-CA05A7703045}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB5EB82-2BF5-4FF3-88EE-8A952AD35B16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="1275" windowWidth="26220" windowHeight="14505" activeTab="1" xr2:uid="{2029B92A-B94F-4C8E-B78B-DD09C52632EF}"/>
+    <workbookView xWindow="315" yWindow="330" windowWidth="21960" windowHeight="12900" activeTab="1" xr2:uid="{2029B92A-B94F-4C8E-B78B-DD09C52632EF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Rules" sheetId="2" r:id="rId1"/>
-    <sheet name="TargetServer" sheetId="4" r:id="rId2"/>
-    <sheet name="TargetCPU" sheetId="1" r:id="rId3"/>
-    <sheet name="TargetMem" sheetId="3" r:id="rId4"/>
+    <sheet name="NewFields" sheetId="5" r:id="rId1"/>
+    <sheet name="Rules" sheetId="2" r:id="rId2"/>
+    <sheet name="TargetServer" sheetId="4" r:id="rId3"/>
+    <sheet name="TargetCPU" sheetId="1" r:id="rId4"/>
+    <sheet name="TargetMem" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
   <si>
     <t>DL360</t>
   </si>
@@ -128,10 +130,31 @@
     <t xml:space="preserve">usage databases, </t>
   </si>
   <si>
-    <t>If</t>
-  </si>
-  <si>
-    <t>Then</t>
+    <t>Rule</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Rec_Num_Cores</t>
+  </si>
+  <si>
+    <t>New Field Name</t>
+  </si>
+  <si>
+    <t>`# Cores` * .5</t>
+  </si>
+  <si>
+    <t>New Field Formula</t>
+  </si>
+  <si>
+    <t>`Num Cores` * .5 &lt;= 28</t>
+  </si>
+  <si>
+    <t>`Purpose` == "Usage"</t>
+  </si>
+  <si>
+    <t>`Num Cores` * .5 &gt; 28</t>
   </si>
 </sst>
 </file>
@@ -175,9 +198,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,19 +518,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8210B665-094C-497D-8BB8-FBFB60F28EDE}">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F2672C-47E3-4AFC-A4C5-2F6E3296FC35}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" t="s">
-        <v>31</v>
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -512,11 +553,63 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8210B665-094C-497D-8BB8-FBFB60F28EDE}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC54033-B4ED-4604-9CEE-23B02682BA8B}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,7 +725,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3403505-832C-4608-B6F2-6EC669660BFE}">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -747,7 +840,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58214E09-CFCC-4272-8F14-160DDD39B4AC}">
   <dimension ref="A1:D2"/>
   <sheetViews>

--- a/data/rules.xlsx
+++ b/data/rules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\amdocs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB5EB82-2BF5-4FF3-88EE-8A952AD35B16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C0BAEB-7049-4A03-B69C-0C22C511BDC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="315" yWindow="330" windowWidth="21960" windowHeight="12900" activeTab="1" xr2:uid="{2029B92A-B94F-4C8E-B78B-DD09C52632EF}"/>
+    <workbookView xWindow="315" yWindow="330" windowWidth="25890" windowHeight="12900" activeTab="1" xr2:uid="{2029B92A-B94F-4C8E-B78B-DD09C52632EF}"/>
   </bookViews>
   <sheets>
     <sheet name="NewFields" sheetId="5" r:id="rId1"/>
@@ -151,10 +151,10 @@
     <t>`Num Cores` * .5 &lt;= 28</t>
   </si>
   <si>
-    <t>`Purpose` == "Usage"</t>
-  </si>
-  <si>
     <t>`Num Cores` * .5 &gt; 28</t>
+  </si>
+  <si>
+    <t>`Purpose` == "Usage" &amp; `IEDS status` == "Productoin"</t>
   </si>
 </sst>
 </file>
@@ -557,12 +557,12 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="47.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -579,12 +579,12 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -592,7 +592,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -601,6 +601,18 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{43DE06B1-1062-42AC-BFFE-7966EF4994CD}">
+          <x14:formula1>
+            <xm:f>TargetServer!$A$2:$A$99</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B59</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 

--- a/data/rules.xlsx
+++ b/data/rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\amdocs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C0BAEB-7049-4A03-B69C-0C22C511BDC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B294084C-2E4B-412C-BB0A-E33F9112B900}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="315" yWindow="330" windowWidth="25890" windowHeight="12900" activeTab="1" xr2:uid="{2029B92A-B94F-4C8E-B78B-DD09C52632EF}"/>
   </bookViews>
@@ -148,13 +148,13 @@
     <t>New Field Formula</t>
   </si>
   <si>
-    <t>`Num Cores` * .5 &lt;= 28</t>
-  </si>
-  <si>
-    <t>`Num Cores` * .5 &gt; 28</t>
-  </si>
-  <si>
     <t>`Purpose` == "Usage" &amp; `IEDS status` == "Productoin"</t>
+  </si>
+  <si>
+    <t>`# Cores` * .5 &lt;= 28</t>
+  </si>
+  <si>
+    <t>`# Cores` * .5 &gt; 28</t>
   </si>
 </sst>
 </file>
@@ -557,7 +557,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,7 +576,7 @@
     </row>
     <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -584,7 +584,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -592,7 +592,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>

--- a/data/rules.xlsx
+++ b/data/rules.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\amdocs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B294084C-2E4B-412C-BB0A-E33F9112B900}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA7D585-33C4-4A7F-AE9E-10F95CFC879D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="315" yWindow="330" windowWidth="25890" windowHeight="12900" activeTab="1" xr2:uid="{2029B92A-B94F-4C8E-B78B-DD09C52632EF}"/>
+    <workbookView xWindow="-25800" yWindow="2385" windowWidth="25050" windowHeight="12480" activeTab="2" xr2:uid="{2029B92A-B94F-4C8E-B78B-DD09C52632EF}"/>
   </bookViews>
   <sheets>
     <sheet name="NewFields" sheetId="5" r:id="rId1"/>
     <sheet name="Rules" sheetId="2" r:id="rId2"/>
-    <sheet name="TargetServer" sheetId="4" r:id="rId3"/>
-    <sheet name="TargetCPU" sheetId="1" r:id="rId4"/>
-    <sheet name="TargetMem" sheetId="3" r:id="rId5"/>
+    <sheet name="Filter" sheetId="6" r:id="rId3"/>
+    <sheet name="TargetServer" sheetId="4" r:id="rId4"/>
+    <sheet name="TargetCPU" sheetId="1" r:id="rId5"/>
+    <sheet name="TargetMem" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
   <si>
     <t>DL360</t>
   </si>
@@ -148,13 +149,22 @@
     <t>New Field Formula</t>
   </si>
   <si>
-    <t>`Purpose` == "Usage" &amp; `IEDS status` == "Productoin"</t>
-  </si>
-  <si>
-    <t>`# Cores` * .5 &lt;= 28</t>
-  </si>
-  <si>
-    <t>`# Cores` * .5 &gt; 28</t>
+    <t>`Environment` == "Production"</t>
+  </si>
+  <si>
+    <t>Ignore</t>
+  </si>
+  <si>
+    <t>`Purpose` == "ArchAngel"</t>
+  </si>
+  <si>
+    <t>`Layer` == "Application"</t>
+  </si>
+  <si>
+    <t>`# Cores` &gt; 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">`Environment` == "Production" &amp;`Layer` = </t>
   </si>
 </sst>
 </file>
@@ -203,8 +213,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,7 +532,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,15 +564,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8210B665-094C-497D-8BB8-FBFB60F28EDE}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="62.85546875" style="4" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -574,28 +584,36 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
         <v>37</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -608,7 +626,7 @@
           <x14:formula1>
             <xm:f>TargetServer!$A$2:$A$99</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B59</xm:sqref>
+          <xm:sqref>B4:B56</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -617,11 +635,32 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FADAA68A-59C8-408A-879C-C4D7751410DF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="55.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AC54033-B4ED-4604-9CEE-23B02682BA8B}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A9" sqref="A9:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -732,12 +771,17 @@
         <v>27</v>
       </c>
     </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3403505-832C-4608-B6F2-6EC669660BFE}">
   <dimension ref="A1:I4"/>
   <sheetViews>
@@ -852,7 +896,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58214E09-CFCC-4272-8F14-160DDD39B4AC}">
   <dimension ref="A1:D2"/>
   <sheetViews>

--- a/data/rules.xlsx
+++ b/data/rules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\amdocs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA7D585-33C4-4A7F-AE9E-10F95CFC879D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2246BC5A-D522-467C-9C70-2326D7EE2192}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25800" yWindow="2385" windowWidth="25050" windowHeight="12480" activeTab="2" xr2:uid="{2029B92A-B94F-4C8E-B78B-DD09C52632EF}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
   <si>
     <t>DL360</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t xml:space="preserve">`Environment` == "Production" &amp;`Layer` = </t>
+  </si>
+  <si>
+    <t>Filter</t>
   </si>
 </sst>
 </file>
@@ -636,17 +639,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FADAA68A-59C8-408A-879C-C4D7751410DF}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="55.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>41</v>
       </c>
     </row>

--- a/data/rules.xlsx
+++ b/data/rules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\amdocs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2246BC5A-D522-467C-9C70-2326D7EE2192}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD92349-9FC1-4DEE-A551-408BD1026C78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25800" yWindow="2385" windowWidth="25050" windowHeight="12480" activeTab="2" xr2:uid="{2029B92A-B94F-4C8E-B78B-DD09C52632EF}"/>
+    <workbookView xWindow="-23055" yWindow="2760" windowWidth="25050" windowHeight="12480" activeTab="2" xr2:uid="{2029B92A-B94F-4C8E-B78B-DD09C52632EF}"/>
   </bookViews>
   <sheets>
     <sheet name="NewFields" sheetId="5" r:id="rId1"/>
@@ -164,10 +164,10 @@
     <t>`# Cores` &gt; 10</t>
   </si>
   <si>
-    <t xml:space="preserve">`Environment` == "Production" &amp;`Layer` = </t>
-  </si>
-  <si>
     <t>Filter</t>
+  </si>
+  <si>
+    <t>`Environment` == "Production" &amp; `Layer` == "Application"</t>
   </si>
 </sst>
 </file>
@@ -642,22 +642,22 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.7109375" customWidth="1"/>
+    <col min="1" max="1" width="86" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/data/rules.xlsx
+++ b/data/rules.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\amdocs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD92349-9FC1-4DEE-A551-408BD1026C78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C411BA-1559-4564-B8F8-338537178EF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23055" yWindow="2760" windowWidth="25050" windowHeight="12480" activeTab="2" xr2:uid="{2029B92A-B94F-4C8E-B78B-DD09C52632EF}"/>
+    <workbookView xWindow="-27045" yWindow="2895" windowWidth="25050" windowHeight="12480" xr2:uid="{2029B92A-B94F-4C8E-B78B-DD09C52632EF}"/>
   </bookViews>
   <sheets>
-    <sheet name="NewFields" sheetId="5" r:id="rId1"/>
+    <sheet name="Filter" sheetId="6" r:id="rId1"/>
     <sheet name="Rules" sheetId="2" r:id="rId2"/>
-    <sheet name="Filter" sheetId="6" r:id="rId3"/>
+    <sheet name="NewFields" sheetId="5" r:id="rId3"/>
     <sheet name="TargetServer" sheetId="4" r:id="rId4"/>
     <sheet name="TargetCPU" sheetId="1" r:id="rId5"/>
     <sheet name="TargetMem" sheetId="3" r:id="rId6"/>
@@ -531,33 +531,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F2672C-47E3-4AFC-A4C5-2F6E3296FC35}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FADAA68A-59C8-408A-879C-C4D7751410DF}">
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1"/>
-    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="1" max="1" width="86" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -638,26 +631,33 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FADAA68A-59C8-408A-879C-C4D7751410DF}">
-  <dimension ref="A1:A2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61F2672C-47E3-4AFC-A4C5-2F6E3296FC35}">
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="86" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>32</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
